--- a/data/imputed/Congressional Election Results by State (2012 - 113th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2012 - 113th) IMPUTED.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5929BC-BBF6-0241-917A-858F9C42C96E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3191B3-6289-184B-A759-5923070848D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="24160" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="24160" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="7" r:id="rId2"/>
     <sheet name="Uncontested by State" sheetId="10" r:id="rId3"/>
-    <sheet name="Assumptions" sheetId="12" r:id="rId4"/>
-    <sheet name="EXPORT" sheetId="13" r:id="rId5"/>
+    <sheet name="EXPORT" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$A$2:$X$52</definedName>
@@ -25,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="198">
   <si>
     <t>State</t>
   </si>
@@ -612,9 +611,6 @@
   </si>
   <si>
     <t>threshold</t>
-  </si>
-  <si>
-    <t>Super small # =</t>
   </si>
   <si>
     <t>STATE</t>
@@ -863,7 +859,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1035,7 +1031,6 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
@@ -3132,7 +3127,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4031,7 +4026,7 @@
         <v>0.6137076432950711</v>
       </c>
       <c r="X3" s="44">
-        <f>S3/SUM(S3:T3)</f>
+        <f t="shared" ref="X3:X34" si="7">S3/SUM(S3:T3)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -4065,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="98">
-        <f t="shared" ref="J4:J52" si="7">(F4-G4)/(V4-SUM(H4:I4))</f>
+        <f t="shared" ref="J4:J52" si="8">(F4-G4)/(V4-SUM(H4:I4))</f>
         <v>289804</v>
       </c>
       <c r="K4" s="24">
@@ -4114,7 +4109,7 @@
         <v>0.69082815418513699</v>
       </c>
       <c r="X4" s="44">
-        <f>S4/SUM(S4:T4)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4148,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255686.25</v>
       </c>
       <c r="K5" s="24">
@@ -4197,7 +4192,7 @@
         <v>0.5419049857075845</v>
       </c>
       <c r="X5" s="44">
-        <f>S5/SUM(S5:T5)</f>
+        <f t="shared" si="7"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -4231,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>264131.33333333331</v>
       </c>
       <c r="K6" s="24">
@@ -4280,7 +4275,7 @@
         <v>0.62369812428162674</v>
       </c>
       <c r="X6" s="44">
-        <f>S6/SUM(S6:T6)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4314,7 +4309,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>238443.85365853659</v>
       </c>
       <c r="K7" s="24">
@@ -4363,7 +4358,7 @@
         <v>0.41003379250615613</v>
       </c>
       <c r="X7" s="44">
-        <f>S7/SUM(S7:T7)</f>
+        <f t="shared" si="7"/>
         <v>0.28301886792452829</v>
       </c>
     </row>
@@ -4397,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>357209.5</v>
       </c>
       <c r="K8" s="24">
@@ -4446,7 +4441,7 @@
         <v>0.50135582247982635</v>
       </c>
       <c r="X8" s="44">
-        <f>S8/SUM(S8:T8)</f>
+        <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -4480,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>293302.2</v>
       </c>
       <c r="K9" s="24">
@@ -4529,7 +4524,7 @@
         <v>0.35679116320406579</v>
       </c>
       <c r="X9" s="44">
-        <f>S9/SUM(S9:T9)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4563,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>388059</v>
       </c>
       <c r="K10" s="24">
@@ -4612,7 +4607,7 @@
         <v>0.34174458110563882</v>
       </c>
       <c r="X10" s="44">
-        <f>S10/SUM(S10:T10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4646,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>308054.76190476189</v>
       </c>
       <c r="K11" s="24">
@@ -4695,7 +4690,7 @@
         <v>0.52954111413457516</v>
       </c>
       <c r="X11" s="44">
-        <f>S11/SUM(S11:T11)</f>
+        <f t="shared" si="7"/>
         <v>0.62962962962962965</v>
       </c>
     </row>
@@ -4729,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>264703</v>
       </c>
       <c r="K12" s="24">
@@ -4778,7 +4773,7 @@
         <v>0.54969132246594044</v>
       </c>
       <c r="X12" s="44">
-        <f>S12/SUM(S12:T12)</f>
+        <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -4812,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>218579.5</v>
       </c>
       <c r="K13" s="24">
@@ -4861,7 +4856,7 @@
         <v>0.32548711479887066</v>
       </c>
       <c r="X13" s="44">
-        <f>S13/SUM(S13:T13)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4895,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>317609</v>
       </c>
       <c r="K14" s="24">
@@ -4944,7 +4939,7 @@
         <v>0.66136681021799315</v>
       </c>
       <c r="X14" s="44">
-        <f>S14/SUM(S14:T14)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4978,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>281007.38888888888</v>
       </c>
       <c r="K15" s="24">
@@ -5027,7 +5022,7 @@
         <v>0.4458869195721718</v>
       </c>
       <c r="X15" s="44">
-        <f>S15/SUM(S15:T15)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5061,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>283749.55555555556</v>
       </c>
       <c r="K16" s="24">
@@ -5110,7 +5105,7 @@
         <v>0.54193658055882299</v>
       </c>
       <c r="X16" s="44">
-        <f>S16/SUM(S16:T16)</f>
+        <f t="shared" si="7"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -5144,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>384212.25</v>
       </c>
       <c r="K17" s="24">
@@ -5193,7 +5188,7 @@
         <v>0.48469469448098995</v>
       </c>
       <c r="X17" s="44">
-        <f>S17/SUM(S17:T17)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5227,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>276320</v>
       </c>
       <c r="K18" s="24">
@@ -5276,7 +5271,7 @@
         <v>0.66174734356552534</v>
       </c>
       <c r="X18" s="44">
-        <f>S18/SUM(S18:T18)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5310,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>290896.16666666669</v>
       </c>
       <c r="K19" s="24">
@@ -5359,7 +5354,7 @@
         <v>0.60010885777591416</v>
       </c>
       <c r="X19" s="44">
-        <f>S19/SUM(S19:T19)</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5393,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>296385.66666666669</v>
       </c>
       <c r="K20" s="24">
@@ -5442,7 +5437,7 @@
         <v>0.6454264074134064</v>
       </c>
       <c r="X20" s="44">
-        <f>S20/SUM(S20:T20)</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5476,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>362311.5</v>
       </c>
       <c r="K21" s="24">
@@ -5525,7 +5520,7 @@
         <v>0.38336929465365427</v>
       </c>
       <c r="X21" s="44">
-        <f>S21/SUM(S21:T21)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5559,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>323189.25</v>
       </c>
       <c r="K22" s="24">
@@ -5608,7 +5603,7 @@
         <v>0.34539637014450697</v>
       </c>
       <c r="X22" s="44">
-        <f>S22/SUM(S22:T22)</f>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5642,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>369961.83333333331</v>
       </c>
       <c r="K23" s="24">
@@ -5691,7 +5686,7 @@
         <v>0.32650091781549156</v>
       </c>
       <c r="X23" s="44">
-        <f>S23/SUM(S23:T23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5725,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>326759.42857142858</v>
       </c>
       <c r="K24" s="24">
@@ -5774,7 +5769,7 @@
         <v>0.47268487803154352</v>
       </c>
       <c r="X24" s="44">
-        <f>S24/SUM(S24:T24)</f>
+        <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -5808,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>351672.875</v>
       </c>
       <c r="K25" s="24">
@@ -5857,7 +5852,7 @@
         <v>0.43675112118707088</v>
       </c>
       <c r="X25" s="44">
-        <f>S25/SUM(S25:T25)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
     </row>
@@ -5891,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>304951</v>
       </c>
       <c r="K26" s="24">
@@ -5940,7 +5935,7 @@
         <v>0.57882523078644255</v>
       </c>
       <c r="X26" s="44">
-        <f>S26/SUM(S26:T26)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5974,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>334487.5</v>
       </c>
       <c r="K27" s="24">
@@ -6023,7 +6018,7 @@
         <v>0.56659182235573757</v>
       </c>
       <c r="X27" s="44">
-        <f>S27/SUM(S27:T27)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6057,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479740</v>
       </c>
       <c r="K28" s="24">
@@ -6106,7 +6101,7 @@
         <v>0.55487427428340574</v>
       </c>
       <c r="X28" s="44">
-        <f>S28/SUM(S28:T28)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6140,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>257505</v>
       </c>
       <c r="K29" s="24">
@@ -6189,7 +6184,7 @@
         <v>0.64241600486721939</v>
       </c>
       <c r="X29" s="44">
-        <f>S29/SUM(S29:T29)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6223,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>243435.5</v>
       </c>
       <c r="K30" s="24">
@@ -6272,7 +6267,7 @@
         <v>0.50215748960242668</v>
       </c>
       <c r="X30" s="44">
-        <f>S30/SUM(S30:T30)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6306,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>341208</v>
       </c>
       <c r="K31" s="24">
@@ -6355,7 +6350,7 @@
         <v>0.47755841982588598</v>
       </c>
       <c r="X31" s="44">
-        <f>S31/SUM(S31:T31)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6389,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>273481.5</v>
       </c>
       <c r="K32" s="24">
@@ -6438,7 +6433,7 @@
         <v>0.44356306746890956</v>
       </c>
       <c r="X32" s="44">
-        <f>S32/SUM(S32:T32)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6472,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255363.33333333334</v>
       </c>
       <c r="K33" s="24">
@@ -6521,7 +6516,7 @@
         <v>0.4484491637686196</v>
       </c>
       <c r="X33" s="44">
-        <f>S33/SUM(S33:T33)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6555,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>266827.34615384613</v>
       </c>
       <c r="K34" s="24">
@@ -6604,7 +6599,7 @@
         <v>0.31447900660513711</v>
       </c>
       <c r="X34" s="44">
-        <f>S34/SUM(S34:T34)</f>
+        <f t="shared" si="7"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -6638,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>337239.38461538462</v>
       </c>
       <c r="K35" s="24">
@@ -6654,19 +6649,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="24">
-        <f t="shared" ref="O35:O52" si="8">C35+K35</f>
+        <f t="shared" ref="O35:O52" si="9">C35+K35</f>
         <v>2137167</v>
       </c>
       <c r="P35" s="48">
-        <f t="shared" ref="P35:P52" si="9">D35+L35</f>
+        <f t="shared" ref="P35:P52" si="10">D35+L35</f>
         <v>2218357</v>
       </c>
       <c r="Q35" s="49">
-        <f t="shared" ref="Q35:Q52" si="10">E35+M35</f>
+        <f t="shared" ref="Q35:Q52" si="11">E35+M35</f>
         <v>28588</v>
       </c>
       <c r="R35" s="48">
-        <f t="shared" ref="R35:R52" si="11">F35+N35</f>
+        <f t="shared" ref="R35:R52" si="12">F35+N35</f>
         <v>4384112</v>
       </c>
       <c r="S35" s="27">
@@ -6683,11 +6678,11 @@
         <v>13</v>
       </c>
       <c r="W35" s="43">
-        <f t="shared" ref="W35:W52" si="12">O35/SUM(O35:P35)</f>
+        <f t="shared" ref="W35:W52" si="13">O35/SUM(O35:P35)</f>
         <v>0.49067965186278389</v>
       </c>
       <c r="X35" s="44">
-        <f>S35/SUM(S35:T35)</f>
+        <f t="shared" ref="X35:X52" si="14">S35/SUM(S35:T35)</f>
         <v>0.69230769230769229</v>
       </c>
     </row>
@@ -6721,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>316224</v>
       </c>
       <c r="K36" s="24">
@@ -6737,19 +6732,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>173585</v>
       </c>
       <c r="P36" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>131870</v>
       </c>
       <c r="Q36" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10769</v>
       </c>
       <c r="R36" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>316224</v>
       </c>
       <c r="S36" s="27">
@@ -6766,11 +6761,11 @@
         <v>1</v>
       </c>
       <c r="W36" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.56828338053068372</v>
       </c>
       <c r="X36" s="44">
-        <f>S36/SUM(S36:T36)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6804,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>331103.64285714284</v>
       </c>
       <c r="K37" s="24">
@@ -6820,19 +6815,19 @@
         <v>214378</v>
       </c>
       <c r="O37" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2730958</v>
       </c>
       <c r="P37" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2517976</v>
       </c>
       <c r="Q37" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>107570</v>
       </c>
       <c r="R37" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5356504</v>
       </c>
       <c r="S37" s="27">
@@ -6849,11 +6844,11 @@
         <v>16</v>
       </c>
       <c r="W37" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.52028811945435016</v>
       </c>
       <c r="X37" s="44">
-        <f>S37/SUM(S37:T37)</f>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6887,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>265187</v>
       </c>
       <c r="K38" s="24">
@@ -6903,19 +6898,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>856872</v>
       </c>
       <c r="P38" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>410324</v>
       </c>
       <c r="Q38" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>58739</v>
       </c>
       <c r="R38" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1325935</v>
       </c>
       <c r="S38" s="27">
@@ -6932,11 +6927,11 @@
         <v>5</v>
       </c>
       <c r="W38" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.67619531627309426</v>
       </c>
       <c r="X38" s="44">
-        <f>S38/SUM(S38:T38)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -6970,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>338608.33333333331</v>
       </c>
       <c r="K39" s="24">
@@ -6986,19 +6981,19 @@
         <v>33143</v>
       </c>
       <c r="O39" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>703495</v>
       </c>
       <c r="P39" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>981291</v>
       </c>
       <c r="Q39" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56525</v>
       </c>
       <c r="R39" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1741311</v>
       </c>
       <c r="S39" s="27">
@@ -7015,11 +7010,11 @@
         <v>5</v>
       </c>
       <c r="W39" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.41755748207784255</v>
       </c>
       <c r="X39" s="44">
-        <f>S39/SUM(S39:T39)</f>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
     </row>
@@ -7053,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>308685</v>
       </c>
       <c r="K40" s="24">
@@ -7069,19 +7064,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2710070</v>
       </c>
       <c r="P40" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2793538</v>
       </c>
       <c r="Q40" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52722</v>
       </c>
       <c r="R40" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5556330</v>
       </c>
       <c r="S40" s="27">
@@ -7098,11 +7093,11 @@
         <v>18</v>
       </c>
       <c r="W40" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49241697446475113</v>
       </c>
       <c r="X40" s="44">
-        <f>S40/SUM(S40:T40)</f>
+        <f t="shared" si="14"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
@@ -7136,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>213887.5</v>
       </c>
       <c r="K41" s="24">
@@ -7152,19 +7147,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>161926</v>
       </c>
       <c r="P41" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>232679</v>
       </c>
       <c r="Q41" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33170</v>
       </c>
       <c r="R41" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>427775</v>
       </c>
       <c r="S41" s="27">
@@ -7181,11 +7176,11 @@
         <v>2</v>
       </c>
       <c r="W41" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.41034959009642552</v>
       </c>
       <c r="X41" s="44">
-        <f>S41/SUM(S41:T41)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7219,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>273080.2</v>
       </c>
       <c r="K42" s="24">
@@ -7235,19 +7230,19 @@
         <v>155286</v>
       </c>
       <c r="O42" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1119865</v>
       </c>
       <c r="P42" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>798241</v>
       </c>
       <c r="Q42" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39914</v>
       </c>
       <c r="R42" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1958020</v>
       </c>
       <c r="S42" s="27">
@@ -7264,11 +7259,11 @@
         <v>7</v>
       </c>
       <c r="W42" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.58383895363447069</v>
       </c>
       <c r="X42" s="44">
-        <f>S42/SUM(S42:T42)</f>
+        <f t="shared" si="14"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -7302,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>361429</v>
       </c>
       <c r="K43" s="24">
@@ -7318,19 +7313,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>207640</v>
       </c>
       <c r="P43" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>153789</v>
       </c>
       <c r="Q43" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R43" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>361429</v>
       </c>
       <c r="S43" s="27">
@@ -7347,11 +7342,11 @@
         <v>1</v>
       </c>
       <c r="W43" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.57449734249326978</v>
       </c>
       <c r="X43" s="44">
-        <f>S43/SUM(S43:T43)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7385,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255310.75</v>
       </c>
       <c r="K44" s="24">
@@ -7401,19 +7396,19 @@
         <v>22163</v>
       </c>
       <c r="O44" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1369562</v>
       </c>
       <c r="P44" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>875534</v>
       </c>
       <c r="Q44" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>60794</v>
       </c>
       <c r="R44" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2305890</v>
       </c>
       <c r="S44" s="27">
@@ -7430,11 +7425,11 @@
         <v>9</v>
       </c>
       <c r="W44" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.61002380299105252</v>
       </c>
       <c r="X44" s="44">
-        <f>S44/SUM(S44:T44)</f>
+        <f t="shared" si="14"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -7468,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>219474.32258064515</v>
       </c>
       <c r="K45" s="24">
@@ -7484,19 +7479,19 @@
         <v>347293</v>
       </c>
       <c r="O45" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4505460</v>
       </c>
       <c r="P45" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3313976</v>
       </c>
       <c r="Q45" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>192065</v>
       </c>
       <c r="R45" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8011501</v>
       </c>
       <c r="S45" s="27">
@@ -7513,11 +7508,11 @@
         <v>36</v>
       </c>
       <c r="W45" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.57618733627335783</v>
       </c>
       <c r="X45" s="44">
-        <f>S45/SUM(S45:T45)</f>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -7551,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>249724.25</v>
       </c>
       <c r="K46" s="24">
@@ -7567,19 +7562,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>647873</v>
       </c>
       <c r="P46" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>324309</v>
       </c>
       <c r="Q46" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26715</v>
       </c>
       <c r="R46" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>998897</v>
       </c>
       <c r="S46" s="27">
@@ -7596,11 +7591,11 @@
         <v>4</v>
       </c>
       <c r="W46" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.66641122752735604</v>
       </c>
       <c r="X46" s="44">
-        <f>S46/SUM(S46:T46)</f>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7634,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>289931</v>
       </c>
       <c r="K47" s="24">
@@ -7650,19 +7645,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67543</v>
       </c>
       <c r="P47" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>208600</v>
       </c>
       <c r="Q47" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13788</v>
       </c>
       <c r="R47" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>289931</v>
       </c>
       <c r="S47" s="27">
@@ -7679,11 +7674,11 @@
         <v>1</v>
       </c>
       <c r="W47" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24459428629369565</v>
       </c>
       <c r="X47" s="44">
-        <f>S47/SUM(S47:T47)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7717,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>340041.36363636365</v>
       </c>
       <c r="K48" s="24">
@@ -7733,19 +7728,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1876761</v>
       </c>
       <c r="P48" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1806025</v>
       </c>
       <c r="Q48" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>57669</v>
       </c>
       <c r="R48" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3740455</v>
       </c>
       <c r="S48" s="27">
@@ -7762,11 +7757,11 @@
         <v>11</v>
       </c>
       <c r="W48" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50960359901444174</v>
       </c>
       <c r="X48" s="44">
-        <f>S48/SUM(S48:T48)</f>
+        <f t="shared" si="14"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
@@ -7800,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300626.59999999998</v>
       </c>
       <c r="K49" s="24">
@@ -7816,19 +7811,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1369540</v>
       </c>
       <c r="P49" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1636726</v>
       </c>
       <c r="Q49" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R49" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3006266</v>
       </c>
       <c r="S49" s="27">
@@ -7845,11 +7840,11 @@
         <v>10</v>
       </c>
       <c r="W49" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.455561816552494</v>
       </c>
       <c r="X49" s="44">
-        <f>S49/SUM(S49:T49)</f>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
     </row>
@@ -7883,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>213784.66666666666</v>
       </c>
       <c r="K50" s="24">
@@ -7899,19 +7894,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>384253</v>
       </c>
       <c r="P50" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>257101</v>
       </c>
       <c r="Q50" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R50" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>641354</v>
       </c>
       <c r="S50" s="27">
@@ -7928,11 +7923,11 @@
         <v>3</v>
       </c>
       <c r="W50" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.59912778278454648</v>
       </c>
       <c r="X50" s="44">
-        <f>S50/SUM(S50:T50)</f>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -7966,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>358256.25</v>
       </c>
       <c r="K51" s="24">
@@ -7982,19 +7977,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1401995</v>
       </c>
       <c r="P51" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1445015</v>
       </c>
       <c r="Q51" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19040</v>
       </c>
       <c r="R51" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2866050</v>
       </c>
       <c r="S51" s="27">
@@ -8011,11 +8006,11 @@
         <v>8</v>
       </c>
       <c r="W51" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49244470514680316</v>
       </c>
       <c r="X51" s="44">
-        <f>S51/SUM(S51:T51)</f>
+        <f t="shared" si="14"/>
         <v>0.625</v>
       </c>
     </row>
@@ -8049,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250700</v>
       </c>
       <c r="K52" s="24">
@@ -8065,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>166452</v>
       </c>
       <c r="P52" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57573</v>
       </c>
       <c r="Q52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26675</v>
       </c>
       <c r="R52" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>250700</v>
       </c>
       <c r="S52" s="27">
@@ -8094,11 +8089,11 @@
         <v>1</v>
       </c>
       <c r="W52" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.74300636089722127</v>
       </c>
       <c r="X52" s="44">
-        <f>S52/SUM(S52:T52)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8132,15 +8127,15 @@
         <v>57622827</v>
       </c>
       <c r="D54" s="35">
-        <f t="shared" ref="D54:N54" si="13">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:N54" si="15">SUM(D3:D52)</f>
         <v>59214910</v>
       </c>
       <c r="E54" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5508283</v>
       </c>
       <c r="F54" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>122346020</v>
       </c>
       <c r="G54" s="88">
@@ -8148,30 +8143,30 @@
         <v>10491398</v>
       </c>
       <c r="H54" s="91">
-        <f t="shared" ref="H54:I54" si="14">SUM(H3:H52)</f>
+        <f t="shared" ref="H54:I54" si="16">SUM(H3:H52)</f>
         <v>26</v>
       </c>
       <c r="I54" s="91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="J54" s="99" t="s">
         <v>14</v>
       </c>
       <c r="K54" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2414055</v>
       </c>
       <c r="L54" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2899639</v>
       </c>
       <c r="M54" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1731274</v>
       </c>
       <c r="N54" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3582420</v>
       </c>
       <c r="O54" s="34">
@@ -8179,15 +8174,15 @@
         <v>60036882</v>
       </c>
       <c r="P54" s="35">
-        <f t="shared" ref="P54:R54" si="15">SUM(P3:P52)</f>
+        <f t="shared" ref="P54:R54" si="17">SUM(P3:P52)</f>
         <v>62114549</v>
       </c>
       <c r="Q54" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3777009</v>
       </c>
       <c r="R54" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>125928440</v>
       </c>
       <c r="S54" s="36">
@@ -8195,15 +8190,15 @@
         <v>234</v>
       </c>
       <c r="T54" s="37">
-        <f t="shared" ref="T54:V54" si="16">SUM(T3:T52)</f>
+        <f t="shared" ref="T54:V54" si="18">SUM(T3:T52)</f>
         <v>201</v>
       </c>
       <c r="U54" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V54" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435</v>
       </c>
       <c r="W54" s="46">
@@ -8292,7 +8287,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:X52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
     <sortCondition ref="A5:A54"/>
@@ -14625,6 +14620,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:J82" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16319,38 +16315,12 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="102">
-        <f>(1/100)/1000000</f>
-        <v>1E-8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94134B1-F4CB-5F47-9E0E-E875C57EB72C}">
   <dimension ref="A1:L51"/>
   <sheetViews>
@@ -16360,44 +16330,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="12" width="10.83203125" style="103"/>
+    <col min="11" max="12" width="10.83203125" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="102" t="s">
         <v>107</v>
       </c>
     </row>
@@ -16432,10 +16402,10 @@
       <c r="J2">
         <v>7</v>
       </c>
-      <c r="K2" s="103">
+      <c r="K2" s="102">
         <v>0.6137076432950711</v>
       </c>
-      <c r="L2" s="103">
+      <c r="L2" s="102">
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -16470,10 +16440,10 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="103">
+      <c r="K3" s="102">
         <v>0.69082815418513699</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="102">
         <v>1</v>
       </c>
     </row>
@@ -16508,10 +16478,10 @@
       <c r="J4">
         <v>9</v>
       </c>
-      <c r="K4" s="103">
+      <c r="K4" s="102">
         <v>0.5419049857075845</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="102">
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -16546,10 +16516,10 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="103">
+      <c r="K5" s="102">
         <v>0.62369812428162674</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="102">
         <v>1</v>
       </c>
     </row>
@@ -16584,10 +16554,10 @@
       <c r="J6">
         <v>53</v>
       </c>
-      <c r="K6" s="103">
+      <c r="K6" s="102">
         <v>0.41003379250615613</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="102">
         <v>0.28301886792452829</v>
       </c>
     </row>
@@ -16622,10 +16592,10 @@
       <c r="J7">
         <v>7</v>
       </c>
-      <c r="K7" s="103">
+      <c r="K7" s="102">
         <v>0.50135582247982635</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="102">
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -16660,10 +16630,10 @@
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="102">
         <v>0.35679116320406579</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="102">
         <v>0</v>
       </c>
     </row>
@@ -16698,10 +16668,10 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="103">
+      <c r="K9" s="102">
         <v>0.34174458110563882</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="102">
         <v>0</v>
       </c>
     </row>
@@ -16736,10 +16706,10 @@
       <c r="J10">
         <v>27</v>
       </c>
-      <c r="K10" s="103">
+      <c r="K10" s="102">
         <v>0.52954111413457516</v>
       </c>
-      <c r="L10" s="103">
+      <c r="L10" s="102">
         <v>0.62962962962962965</v>
       </c>
     </row>
@@ -16774,10 +16744,10 @@
       <c r="J11">
         <v>14</v>
       </c>
-      <c r="K11" s="103">
+      <c r="K11" s="102">
         <v>0.54969132246594044</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="102">
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -16812,10 +16782,10 @@
       <c r="J12">
         <v>2</v>
       </c>
-      <c r="K12" s="103">
+      <c r="K12" s="102">
         <v>0.32548711479887066</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="102">
         <v>0</v>
       </c>
     </row>
@@ -16850,10 +16820,10 @@
       <c r="J13">
         <v>2</v>
       </c>
-      <c r="K13" s="103">
+      <c r="K13" s="102">
         <v>0.66136681021799315</v>
       </c>
-      <c r="L13" s="103">
+      <c r="L13" s="102">
         <v>1</v>
       </c>
     </row>
@@ -16888,10 +16858,10 @@
       <c r="J14">
         <v>18</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="102">
         <v>0.4458869195721718</v>
       </c>
-      <c r="L14" s="103">
+      <c r="L14" s="102">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -16926,10 +16896,10 @@
       <c r="J15">
         <v>9</v>
       </c>
-      <c r="K15" s="103">
+      <c r="K15" s="102">
         <v>0.54193658055882299</v>
       </c>
-      <c r="L15" s="103">
+      <c r="L15" s="102">
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -16964,10 +16934,10 @@
       <c r="J16">
         <v>4</v>
       </c>
-      <c r="K16" s="103">
+      <c r="K16" s="102">
         <v>0.48469469448098995</v>
       </c>
-      <c r="L16" s="103">
+      <c r="L16" s="102">
         <v>0.5</v>
       </c>
     </row>
@@ -17002,10 +16972,10 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17" s="103">
+      <c r="K17" s="102">
         <v>0.66174734356552534</v>
       </c>
-      <c r="L17" s="103">
+      <c r="L17" s="102">
         <v>1</v>
       </c>
     </row>
@@ -17040,10 +17010,10 @@
       <c r="J18">
         <v>6</v>
       </c>
-      <c r="K18" s="103">
+      <c r="K18" s="102">
         <v>0.60010885777591416</v>
       </c>
-      <c r="L18" s="103">
+      <c r="L18" s="102">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -17078,10 +17048,10 @@
       <c r="J19">
         <v>6</v>
       </c>
-      <c r="K19" s="103">
+      <c r="K19" s="102">
         <v>0.6454264074134064</v>
       </c>
-      <c r="L19" s="103">
+      <c r="L19" s="102">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -17116,10 +17086,10 @@
       <c r="J20">
         <v>2</v>
       </c>
-      <c r="K20" s="103">
+      <c r="K20" s="102">
         <v>0.38336929465365427</v>
       </c>
-      <c r="L20" s="103">
+      <c r="L20" s="102">
         <v>0</v>
       </c>
     </row>
@@ -17154,10 +17124,10 @@
       <c r="J21">
         <v>8</v>
       </c>
-      <c r="K21" s="103">
+      <c r="K21" s="102">
         <v>0.34539637014450697</v>
       </c>
-      <c r="L21" s="103">
+      <c r="L21" s="102">
         <v>0.125</v>
       </c>
     </row>
@@ -17192,10 +17162,10 @@
       <c r="J22">
         <v>9</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="102">
         <v>0.32650091781549156</v>
       </c>
-      <c r="L22" s="103">
+      <c r="L22" s="102">
         <v>0</v>
       </c>
     </row>
@@ -17230,10 +17200,10 @@
       <c r="J23">
         <v>14</v>
       </c>
-      <c r="K23" s="103">
+      <c r="K23" s="102">
         <v>0.47268487803154352</v>
       </c>
-      <c r="L23" s="103">
+      <c r="L23" s="102">
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -17268,10 +17238,10 @@
       <c r="J24">
         <v>8</v>
       </c>
-      <c r="K24" s="103">
+      <c r="K24" s="102">
         <v>0.43675112118707088</v>
       </c>
-      <c r="L24" s="103">
+      <c r="L24" s="102">
         <v>0.375</v>
       </c>
     </row>
@@ -17306,10 +17276,10 @@
       <c r="J25">
         <v>4</v>
       </c>
-      <c r="K25" s="103">
+      <c r="K25" s="102">
         <v>0.57882523078644255</v>
       </c>
-      <c r="L25" s="103">
+      <c r="L25" s="102">
         <v>0.75</v>
       </c>
     </row>
@@ -17344,10 +17314,10 @@
       <c r="J26">
         <v>8</v>
       </c>
-      <c r="K26" s="103">
+      <c r="K26" s="102">
         <v>0.56659182235573757</v>
       </c>
-      <c r="L26" s="103">
+      <c r="L26" s="102">
         <v>0.75</v>
       </c>
     </row>
@@ -17382,10 +17352,10 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="103">
+      <c r="K27" s="102">
         <v>0.55487427428340574</v>
       </c>
-      <c r="L27" s="103">
+      <c r="L27" s="102">
         <v>1</v>
       </c>
     </row>
@@ -17420,10 +17390,10 @@
       <c r="J28">
         <v>3</v>
       </c>
-      <c r="K28" s="103">
+      <c r="K28" s="102">
         <v>0.64241600486721939</v>
       </c>
-      <c r="L28" s="103">
+      <c r="L28" s="102">
         <v>1</v>
       </c>
     </row>
@@ -17458,10 +17428,10 @@
       <c r="J29">
         <v>4</v>
       </c>
-      <c r="K29" s="103">
+      <c r="K29" s="102">
         <v>0.50215748960242668</v>
       </c>
-      <c r="L29" s="103">
+      <c r="L29" s="102">
         <v>0.5</v>
       </c>
     </row>
@@ -17496,10 +17466,10 @@
       <c r="J30">
         <v>2</v>
       </c>
-      <c r="K30" s="103">
+      <c r="K30" s="102">
         <v>0.47755841982588598</v>
       </c>
-      <c r="L30" s="103">
+      <c r="L30" s="102">
         <v>0</v>
       </c>
     </row>
@@ -17534,10 +17504,10 @@
       <c r="J31">
         <v>12</v>
       </c>
-      <c r="K31" s="103">
+      <c r="K31" s="102">
         <v>0.44356306746890956</v>
       </c>
-      <c r="L31" s="103">
+      <c r="L31" s="102">
         <v>0.5</v>
       </c>
     </row>
@@ -17572,10 +17542,10 @@
       <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="103">
+      <c r="K32" s="102">
         <v>0.4484491637686196</v>
       </c>
-      <c r="L32" s="103">
+      <c r="L32" s="102">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -17610,10 +17580,10 @@
       <c r="J33">
         <v>27</v>
       </c>
-      <c r="K33" s="103">
+      <c r="K33" s="102">
         <v>0.31447900660513711</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="102">
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -17648,10 +17618,10 @@
       <c r="J34">
         <v>13</v>
       </c>
-      <c r="K34" s="103">
+      <c r="K34" s="102">
         <v>0.49067965186278389</v>
       </c>
-      <c r="L34" s="103">
+      <c r="L34" s="102">
         <v>0.69230769230769229</v>
       </c>
     </row>
@@ -17686,10 +17656,10 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35" s="103">
+      <c r="K35" s="102">
         <v>0.56828338053068372</v>
       </c>
-      <c r="L35" s="103">
+      <c r="L35" s="102">
         <v>1</v>
       </c>
     </row>
@@ -17724,10 +17694,10 @@
       <c r="J36">
         <v>16</v>
       </c>
-      <c r="K36" s="103">
+      <c r="K36" s="102">
         <v>0.52028811945435016</v>
       </c>
-      <c r="L36" s="103">
+      <c r="L36" s="102">
         <v>0.75</v>
       </c>
     </row>
@@ -17762,10 +17732,10 @@
       <c r="J37">
         <v>5</v>
       </c>
-      <c r="K37" s="103">
+      <c r="K37" s="102">
         <v>0.67619531627309426</v>
       </c>
-      <c r="L37" s="103">
+      <c r="L37" s="102">
         <v>1</v>
       </c>
     </row>
@@ -17800,10 +17770,10 @@
       <c r="J38">
         <v>5</v>
       </c>
-      <c r="K38" s="103">
+      <c r="K38" s="102">
         <v>0.41755748207784255</v>
       </c>
-      <c r="L38" s="103">
+      <c r="L38" s="102">
         <v>0.2</v>
       </c>
     </row>
@@ -17838,10 +17808,10 @@
       <c r="J39">
         <v>18</v>
       </c>
-      <c r="K39" s="103">
+      <c r="K39" s="102">
         <v>0.49241697446475113</v>
       </c>
-      <c r="L39" s="103">
+      <c r="L39" s="102">
         <v>0.72222222222222221</v>
       </c>
     </row>
@@ -17876,10 +17846,10 @@
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="K40" s="103">
+      <c r="K40" s="102">
         <v>0.41034959009642552</v>
       </c>
-      <c r="L40" s="103">
+      <c r="L40" s="102">
         <v>0</v>
       </c>
     </row>
@@ -17914,10 +17884,10 @@
       <c r="J41">
         <v>7</v>
       </c>
-      <c r="K41" s="103">
+      <c r="K41" s="102">
         <v>0.58383895363447069</v>
       </c>
-      <c r="L41" s="103">
+      <c r="L41" s="102">
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -17952,10 +17922,10 @@
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="103">
+      <c r="K42" s="102">
         <v>0.57449734249326978</v>
       </c>
-      <c r="L42" s="103">
+      <c r="L42" s="102">
         <v>1</v>
       </c>
     </row>
@@ -17990,10 +17960,10 @@
       <c r="J43">
         <v>9</v>
       </c>
-      <c r="K43" s="103">
+      <c r="K43" s="102">
         <v>0.61002380299105252</v>
       </c>
-      <c r="L43" s="103">
+      <c r="L43" s="102">
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -18028,10 +17998,10 @@
       <c r="J44">
         <v>36</v>
       </c>
-      <c r="K44" s="103">
+      <c r="K44" s="102">
         <v>0.57618733627335783</v>
       </c>
-      <c r="L44" s="103">
+      <c r="L44" s="102">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -18066,10 +18036,10 @@
       <c r="J45">
         <v>4</v>
       </c>
-      <c r="K45" s="103">
+      <c r="K45" s="102">
         <v>0.66641122752735604</v>
       </c>
-      <c r="L45" s="103">
+      <c r="L45" s="102">
         <v>0.75</v>
       </c>
     </row>
@@ -18104,10 +18074,10 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="103">
+      <c r="K46" s="102">
         <v>0.24459428629369565</v>
       </c>
-      <c r="L46" s="103">
+      <c r="L46" s="102">
         <v>0</v>
       </c>
     </row>
@@ -18142,10 +18112,10 @@
       <c r="J47">
         <v>11</v>
       </c>
-      <c r="K47" s="103">
+      <c r="K47" s="102">
         <v>0.50960359901444174</v>
       </c>
-      <c r="L47" s="103">
+      <c r="L47" s="102">
         <v>0.72727272727272729</v>
       </c>
     </row>
@@ -18180,10 +18150,10 @@
       <c r="J48">
         <v>10</v>
       </c>
-      <c r="K48" s="103">
+      <c r="K48" s="102">
         <v>0.455561816552494</v>
       </c>
-      <c r="L48" s="103">
+      <c r="L48" s="102">
         <v>0.4</v>
       </c>
     </row>
@@ -18218,10 +18188,10 @@
       <c r="J49">
         <v>3</v>
       </c>
-      <c r="K49" s="103">
+      <c r="K49" s="102">
         <v>0.59912778278454648</v>
       </c>
-      <c r="L49" s="103">
+      <c r="L49" s="102">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -18256,10 +18226,10 @@
       <c r="J50">
         <v>8</v>
       </c>
-      <c r="K50" s="103">
+      <c r="K50" s="102">
         <v>0.49244470514680316</v>
       </c>
-      <c r="L50" s="103">
+      <c r="L50" s="102">
         <v>0.625</v>
       </c>
     </row>
@@ -18294,14 +18264,15 @@
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="103">
+      <c r="K51" s="102">
         <v>0.74300636089722127</v>
       </c>
-      <c r="L51" s="103">
+      <c r="L51" s="102">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>